--- a/Formula calc.xlsx
+++ b/Formula calc.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VIJAY\Desktop\ESP8266\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18800" windowHeight="5380"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18795" windowHeight="5385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -107,9 +102,6 @@
     <t>Char</t>
   </si>
   <si>
-    <t>Enter number (0to 61)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Convert Number to Char </t>
   </si>
   <si>
@@ -186,13 +178,16 @@
   </si>
   <si>
     <t>Device ID : ABFFFFFF : It is 8 Digit, It will be enter duing device manufacturing process with special tool, It will stored in EEPROM</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,7 +425,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -482,7 +477,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -676,40 +671,40 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" customWidth="1"/>
-    <col min="2" max="2" width="33.54296875" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.36328125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="27.6328125" customWidth="1"/>
-    <col min="6" max="6" width="12.90625" customWidth="1"/>
-    <col min="7" max="7" width="7.81640625" customWidth="1"/>
-    <col min="8" max="8" width="7.36328125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="28.36328125" customWidth="1"/>
-    <col min="11" max="11" width="8.7265625" style="7"/>
-    <col min="12" max="12" width="28.36328125" customWidth="1"/>
-    <col min="13" max="13" width="11.1796875" customWidth="1"/>
-    <col min="14" max="14" width="14.36328125" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="28.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="7"/>
+    <col min="12" max="12" width="28.42578125" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14">
       <c r="A1" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -718,91 +713,91 @@
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14">
       <c r="A2" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="26" t="s">
         <v>44</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>45</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="65.099999999999994" customHeight="1">
       <c r="A3" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="25" t="s">
         <v>46</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>47</v>
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="30">
       <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
       <c r="I4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:14" ht="25.5" customHeight="1">
       <c r="B5" s="8" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="C5" s="9">
         <v>40</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J5" s="11">
         <v>62</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="B6" s="10" t="s">
         <v>26</v>
       </c>
@@ -811,7 +806,7 @@
         <v>e</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" s="17">
         <f>IF(CODE(F5)&lt;58,CODE(F5)-48,IF((CODE(F5)&lt;91),CODE(F5)-55, (CODE(F5)-61)))</f>
@@ -820,87 +815,87 @@
       <c r="J6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14">
       <c r="I7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J7" s="1">
         <f>IF(J5/62&lt;1,0,QUOTIENT(J5,62))</f>
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M7" s="23">
         <f>IF(LEN(M5)&gt;1,MID(M5,LEN(M5),1), 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14">
       <c r="I8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J8" s="1">
         <f>MOD(J5,62)</f>
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M8" s="23" t="str">
         <f>MID(M5,LEN(M5),1)</f>
         <v>b</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14">
       <c r="I9" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J9" s="20">
         <f>IF(AND(J7&gt;-1,J7&lt;10),J7,CHAR(IF(AND(J7+55&gt;64,J7+55&lt;91),J7+55,(IF(AND(J7+61&gt;91,J7+61&lt;123),J7+61)))))</f>
         <v>1</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M9" s="1">
         <f>IF(CODE(M7)&lt;58,CODE(M7)-48,IF((CODE(M7)&lt;91),CODE(M7)-55, (CODE(M7)-61)))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="30.6" customHeight="1">
       <c r="I10" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J10" s="20">
         <f>IF(AND(J8&gt;-1,J8&lt;10),J8,CHAR(IF(AND(J8+55&gt;64,J8+55&lt;91),J8+55,(IF(AND(J8+61&gt;91,J8+61&lt;123),J8+61)))))</f>
         <v>0</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M10" s="1">
         <f>IF(CODE(M8)&lt;58,CODE(M8)-48,IF((CODE(M8)&lt;91),CODE(M8)-55, (CODE(M8)-61)))</f>
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="30.6" customHeight="1">
       <c r="I11" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J11" s="22" t="str">
         <f>J9&amp;J10</f>
         <v>10</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M11" s="13">
         <f>M9*62+M10</f>
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="129" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="129" customHeight="1">
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
@@ -919,7 +914,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="45">
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
@@ -944,7 +939,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14">
       <c r="B14">
         <v>0</v>
       </c>
@@ -966,7 +961,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14">
       <c r="B15">
         <v>1</v>
       </c>
@@ -1005,7 +1000,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14">
       <c r="B16">
         <v>2</v>
       </c>
@@ -1044,7 +1039,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:13">
       <c r="B17">
         <v>3</v>
       </c>
@@ -1080,7 +1075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:13">
       <c r="B18">
         <v>4</v>
       </c>
@@ -1116,7 +1111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:13">
       <c r="B19">
         <v>5</v>
       </c>
@@ -1152,7 +1147,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:13">
       <c r="B20">
         <v>6</v>
       </c>
@@ -1188,7 +1183,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:13">
       <c r="B21">
         <v>7</v>
       </c>
@@ -1224,7 +1219,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:13">
       <c r="B22">
         <v>8</v>
       </c>
@@ -1260,7 +1255,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:13">
       <c r="B23">
         <v>9</v>
       </c>
@@ -1296,7 +1291,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:13">
       <c r="B24">
         <v>10</v>
       </c>
@@ -1332,7 +1327,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:13">
       <c r="B25">
         <v>11</v>
       </c>
@@ -1360,7 +1355,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:13">
       <c r="B26">
         <v>12</v>
       </c>
@@ -1388,7 +1383,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:13">
       <c r="B27">
         <v>13</v>
       </c>
@@ -1405,7 +1400,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:13">
       <c r="B28">
         <v>14</v>
       </c>
@@ -1422,7 +1417,7 @@
         <v>E</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:13">
       <c r="B29">
         <v>15</v>
       </c>
@@ -1439,7 +1434,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:13">
       <c r="B30">
         <v>16</v>
       </c>
@@ -1456,7 +1451,7 @@
         <v>G</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:13">
       <c r="B31">
         <v>17</v>
       </c>
@@ -1473,7 +1468,7 @@
         <v>H</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:13">
       <c r="B32">
         <v>18</v>
       </c>
@@ -1490,7 +1485,7 @@
         <v>I</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10">
       <c r="B33">
         <v>19</v>
       </c>
@@ -1507,7 +1502,7 @@
         <v>J</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:10">
       <c r="B34">
         <v>20</v>
       </c>
@@ -1524,7 +1519,7 @@
         <v>K</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:10">
       <c r="B35">
         <v>21</v>
       </c>
@@ -1541,7 +1536,7 @@
         <v>L</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:10">
       <c r="B36">
         <v>22</v>
       </c>
@@ -1558,7 +1553,7 @@
         <v>M</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:10">
       <c r="B37">
         <v>23</v>
       </c>
@@ -1575,7 +1570,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:10">
       <c r="B38">
         <v>24</v>
       </c>
@@ -1592,7 +1587,7 @@
         <v>O</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:10">
       <c r="B39">
         <v>25</v>
       </c>
@@ -1609,7 +1604,7 @@
         <v>P</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:10">
       <c r="B40">
         <v>26</v>
       </c>
@@ -1626,7 +1621,7 @@
         <v>Q</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:10">
       <c r="B41">
         <v>27</v>
       </c>
@@ -1643,7 +1638,7 @@
         <v>R</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:10">
       <c r="B42">
         <v>28</v>
       </c>
@@ -1660,7 +1655,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:10">
       <c r="B43">
         <v>29</v>
       </c>
@@ -1677,7 +1672,7 @@
         <v>T</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:10">
       <c r="B44">
         <v>30</v>
       </c>
@@ -1694,7 +1689,7 @@
         <v>U</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:10">
       <c r="B45">
         <v>31</v>
       </c>
@@ -1711,7 +1706,7 @@
         <v>V</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:10">
       <c r="B46">
         <v>32</v>
       </c>
@@ -1720,7 +1715,7 @@
         <v>W</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:10">
       <c r="B47">
         <v>33</v>
       </c>
@@ -1729,7 +1724,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:10">
       <c r="B48">
         <v>34</v>
       </c>
@@ -1738,7 +1733,7 @@
         <v>Y</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:3">
       <c r="B49">
         <v>35</v>
       </c>
@@ -1747,7 +1742,7 @@
         <v>Z</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:3">
       <c r="B50">
         <v>36</v>
       </c>
@@ -1756,7 +1751,7 @@
         <v>a</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:3">
       <c r="B51">
         <v>37</v>
       </c>
@@ -1765,7 +1760,7 @@
         <v>b</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:3">
       <c r="B52">
         <v>38</v>
       </c>
@@ -1774,7 +1769,7 @@
         <v>c</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:3">
       <c r="B53">
         <v>39</v>
       </c>
@@ -1783,7 +1778,7 @@
         <v>d</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:3">
       <c r="B54">
         <v>40</v>
       </c>
@@ -1792,7 +1787,7 @@
         <v>e</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:3">
       <c r="B55">
         <v>41</v>
       </c>
@@ -1801,7 +1796,7 @@
         <v>f</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:3">
       <c r="B56">
         <v>42</v>
       </c>
@@ -1810,7 +1805,7 @@
         <v>g</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:3">
       <c r="B57">
         <v>43</v>
       </c>
@@ -1819,7 +1814,7 @@
         <v>h</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:3">
       <c r="B58">
         <v>44</v>
       </c>
@@ -1828,7 +1823,7 @@
         <v>i</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:3">
       <c r="B59">
         <v>45</v>
       </c>
@@ -1837,7 +1832,7 @@
         <v>j</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:3">
       <c r="B60">
         <v>46</v>
       </c>
@@ -1846,7 +1841,7 @@
         <v>k</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:3">
       <c r="B61">
         <v>47</v>
       </c>
@@ -1855,7 +1850,7 @@
         <v>l</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:3">
       <c r="B62">
         <v>48</v>
       </c>
@@ -1864,7 +1859,7 @@
         <v>m</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:3">
       <c r="B63">
         <v>49</v>
       </c>
@@ -1873,7 +1868,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:3">
       <c r="B64">
         <v>50</v>
       </c>
@@ -1882,7 +1877,7 @@
         <v>o</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:3">
       <c r="B65">
         <v>51</v>
       </c>
@@ -1891,7 +1886,7 @@
         <v>p</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:3">
       <c r="B66">
         <v>52</v>
       </c>
@@ -1900,7 +1895,7 @@
         <v>q</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:3">
       <c r="B67">
         <v>53</v>
       </c>
@@ -1909,7 +1904,7 @@
         <v>r</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:3">
       <c r="B68">
         <v>54</v>
       </c>
@@ -1918,7 +1913,7 @@
         <v>s</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:3">
       <c r="B69">
         <v>55</v>
       </c>
@@ -1927,7 +1922,7 @@
         <v>t</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:3">
       <c r="B70">
         <v>56</v>
       </c>
@@ -1936,7 +1931,7 @@
         <v>u</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:3">
       <c r="B71">
         <v>57</v>
       </c>
@@ -1945,7 +1940,7 @@
         <v>v</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:3">
       <c r="B72">
         <v>58</v>
       </c>
@@ -1954,7 +1949,7 @@
         <v>w</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:3">
       <c r="B73">
         <v>59</v>
       </c>
@@ -1963,7 +1958,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:3">
       <c r="B74">
         <v>60</v>
       </c>
@@ -1972,7 +1967,7 @@
         <v>y</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:3">
       <c r="B75">
         <v>61</v>
       </c>
